--- a/EJEMPLO.xlsx
+++ b/EJEMPLO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADM1\Desktop\Facturador-test-casa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADM1\Desktop\Programas\Facturador Completo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>CUIT</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>Varios</t>
+  </si>
+  <si>
+    <t>CUIT Receptor</t>
+  </si>
+  <si>
+    <t>Alicuota</t>
+  </si>
+  <si>
+    <t>Condicion Receptor</t>
+  </si>
+  <si>
+    <t>Consumidor Final</t>
+  </si>
+  <si>
+    <t>21%</t>
   </si>
 </sst>
 </file>
@@ -118,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,6 +143,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,19 +424,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -428,39 +447,46 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45377</v>
+        <v>45401</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>20391117471</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>114200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45377</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>116900</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -472,7 +498,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EJEMPLO.xlsx
+++ b/EJEMPLO.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Comprobantes" sheetId="1" r:id="rId1"/>
     <sheet name="Contribuyente" sheetId="2" r:id="rId2"/>
+    <sheet name="Tablas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>CUIT</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Varios</t>
   </si>
   <si>
-    <t>CUIT Receptor</t>
-  </si>
-  <si>
     <t>Alicuota</t>
   </si>
   <si>
@@ -73,6 +71,60 @@
   </si>
   <si>
     <t>21%</t>
+  </si>
+  <si>
+    <t>idIVAReceptor</t>
+  </si>
+  <si>
+    <t>IVA Sujeto Exento</t>
+  </si>
+  <si>
+    <t>Sujeto No Categorizado</t>
+  </si>
+  <si>
+    <t>Proveedor del Exterior</t>
+  </si>
+  <si>
+    <t>Cliente del Exterior</t>
+  </si>
+  <si>
+    <t>IVA Liberado - Ley Nº 19.640</t>
+  </si>
+  <si>
+    <t>IVA No Alcanzado</t>
+  </si>
+  <si>
+    <t>detalle_tipo_iva</t>
+  </si>
+  <si>
+    <t>No gravado</t>
+  </si>
+  <si>
+    <t>Exento</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>ID Receptor</t>
+  </si>
+  <si>
+    <t>comprobantes_habilitados</t>
+  </si>
+  <si>
+    <t>Factura C</t>
   </si>
 </sst>
 </file>
@@ -148,7 +200,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -159,6 +215,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="idIVAReceptor"/>
+    <tableColumn id="2" name="detalle_tipo_iva" dataDxfId="0"/>
+    <tableColumn id="3" name="comprobantes_habilitados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,15 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
@@ -447,13 +516,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>9</v>
@@ -462,34 +531,93 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>20391117471</v>
-      </c>
+      <c r="C2"/>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>114200</v>
+        <v>65600</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>13600</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Tablas!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Tablas!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Tablas!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -498,7 +626,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,4 +661,105 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>